--- a/data/trans_orig/P04D$aparatos-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04D$aparatos-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>277969</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>254908</v>
+        <v>258466</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>298663</v>
+        <v>299561</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6145676391601276</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5635813667111458</v>
+        <v>0.5714471866383147</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6603208393151256</v>
+        <v>0.6623060573150542</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>269</v>
@@ -764,19 +764,19 @@
         <v>276822</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>257056</v>
+        <v>256108</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>294510</v>
+        <v>296311</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6463804456361461</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6002266186431019</v>
+        <v>0.5980127118941634</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6876826232246708</v>
+        <v>0.6918863189684139</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>542</v>
@@ -785,19 +785,19 @@
         <v>554791</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>524779</v>
+        <v>526755</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>583425</v>
+        <v>584751</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6300398813050765</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5959568647409738</v>
+        <v>0.5982006840539895</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6625577821668449</v>
+        <v>0.6640633471275814</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>17950</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10706</v>
+        <v>11142</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27413</v>
+        <v>29254</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03968566381108103</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02367067313635817</v>
+        <v>0.02463349318146247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06060831362375248</v>
+        <v>0.06467769135075055</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -835,19 +835,19 @@
         <v>13664</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6967</v>
+        <v>7759</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22634</v>
+        <v>23012</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03190484967149822</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01626825998622364</v>
+        <v>0.01811726565743896</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05285083732125818</v>
+        <v>0.05373357077697222</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -856,19 +856,19 @@
         <v>31614</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21927</v>
+        <v>21861</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44684</v>
+        <v>43585</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03590144437909791</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02490052963477265</v>
+        <v>0.02482652034020015</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05074467240335391</v>
+        <v>0.04949669578232275</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>139879</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>120335</v>
+        <v>119952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>161972</v>
+        <v>158657</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3092610655211487</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2660505580325657</v>
+        <v>0.2652055297538524</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3581078144177325</v>
+        <v>0.3507783422036507</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>120</v>
@@ -906,19 +906,19 @@
         <v>120098</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>103889</v>
+        <v>102497</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>139656</v>
+        <v>139175</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2804292895031927</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2425818286885029</v>
+        <v>0.2393317913658178</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3260966854834715</v>
+        <v>0.3249737488758327</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>258</v>
@@ -927,19 +927,19 @@
         <v>259977</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>230735</v>
+        <v>232392</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>286839</v>
+        <v>287639</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2952386553840542</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2620302430392583</v>
+        <v>0.2639122188573618</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3257439813666334</v>
+        <v>0.3266525101508136</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>18498</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10805</v>
+        <v>11489</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28322</v>
+        <v>29150</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04089693034014668</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02388947924168785</v>
+        <v>0.02540220268171652</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0626166601717968</v>
+        <v>0.06444756807990121</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -977,19 +977,19 @@
         <v>19778</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12457</v>
+        <v>11853</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29222</v>
+        <v>31423</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0461811973449682</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02908641599938393</v>
+        <v>0.02767762386168699</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0682330960790629</v>
+        <v>0.07337366605845062</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -998,19 +998,19 @@
         <v>38275</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28191</v>
+        <v>27080</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52247</v>
+        <v>51456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0434669475034798</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03201479926322304</v>
+        <v>0.03075314085465124</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05933359510058348</v>
+        <v>0.05843541678392693</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>427226</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402868</v>
+        <v>402396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>452854</v>
+        <v>452829</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6217925614218922</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5863426778183753</v>
+        <v>0.5856557329868265</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6590930953270178</v>
+        <v>0.6590559128236079</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>365</v>
@@ -1052,19 +1052,19 @@
         <v>390652</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>364241</v>
+        <v>365695</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>414241</v>
+        <v>415319</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6401447938618151</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5968663761128984</v>
+        <v>0.599250127212634</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6788001530093462</v>
+        <v>0.6805666400083704</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>779</v>
@@ -1073,19 +1073,19 @@
         <v>817877</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>782407</v>
+        <v>779988</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>850989</v>
+        <v>851068</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.630425246740139</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.603084674419992</v>
+        <v>0.6012199682274825</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6559480836901403</v>
+        <v>0.6560086544683825</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>28994</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20521</v>
+        <v>19217</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>42576</v>
+        <v>39882</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04219880840800811</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02986696791155486</v>
+        <v>0.02796892046438229</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06196552745262026</v>
+        <v>0.05804453596252858</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -1123,19 +1123,19 @@
         <v>19747</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12099</v>
+        <v>12434</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29699</v>
+        <v>30326</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03235927135997926</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01982550603334529</v>
+        <v>0.02037437296361811</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04866679182437372</v>
+        <v>0.04969451114917133</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>48</v>
@@ -1144,19 +1144,19 @@
         <v>48742</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>35618</v>
+        <v>35366</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>64949</v>
+        <v>64509</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03757039999552066</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02745436965280862</v>
+        <v>0.02726058785657664</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05006314576793895</v>
+        <v>0.04972380775682918</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>196524</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172883</v>
+        <v>172967</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>219312</v>
+        <v>220666</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2860247225417292</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2516180169636802</v>
+        <v>0.2517389008994109</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3191903870715177</v>
+        <v>0.3211617308138418</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>172</v>
@@ -1194,19 +1194,19 @@
         <v>184507</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>162746</v>
+        <v>162542</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>207552</v>
+        <v>207796</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3023435020342253</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2666856657638268</v>
+        <v>0.2663513456143414</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3401066145087743</v>
+        <v>0.340506278167688</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>366</v>
@@ -1215,19 +1215,19 @@
         <v>381031</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>351083</v>
+        <v>345950</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>415285</v>
+        <v>414001</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2937008942880134</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2706168199602996</v>
+        <v>0.2666609523568793</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3201043233430896</v>
+        <v>0.3191150803768878</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>36333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25317</v>
+        <v>25393</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51096</v>
+        <v>50305</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05287925836454678</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03684736458774391</v>
+        <v>0.03695689788123509</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07436621331495717</v>
+        <v>0.07321513571143383</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -1265,19 +1265,19 @@
         <v>18543</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11667</v>
+        <v>11264</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29187</v>
+        <v>29107</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03038629480551786</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01911873842574647</v>
+        <v>0.01845707251196594</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04782809152912153</v>
+        <v>0.04769632483299411</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>49</v>
@@ -1286,19 +1286,19 @@
         <v>54876</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>41902</v>
+        <v>41318</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73549</v>
+        <v>73021</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04229881934081867</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03229806170058346</v>
+        <v>0.03184827238313698</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05669182690575421</v>
+        <v>0.05628494021194541</v>
       </c>
     </row>
     <row r="12">
@@ -1319,19 +1319,19 @@
         <v>424979</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>399252</v>
+        <v>398234</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>448330</v>
+        <v>449810</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6241278880664116</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5863456145829398</v>
+        <v>0.584850637317641</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6584215684581067</v>
+        <v>0.6605953890067804</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>400</v>
@@ -1340,19 +1340,19 @@
         <v>430647</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>402817</v>
+        <v>402358</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>459476</v>
+        <v>457323</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6067801299651625</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.567567955696475</v>
+        <v>0.5669204148990231</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6473996611859616</v>
+        <v>0.6443665900624194</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>805</v>
@@ -1361,19 +1361,19 @@
         <v>855625</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>818310</v>
+        <v>821287</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>893693</v>
+        <v>893085</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6152743183280428</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5884413083482694</v>
+        <v>0.5905819596254209</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6426488852625123</v>
+        <v>0.6422112247500601</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>18688</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11340</v>
+        <v>11571</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28664</v>
+        <v>29321</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02744575573692767</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01665394236309155</v>
+        <v>0.01699387865973963</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04209684368323275</v>
+        <v>0.04306050915627073</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1411,19 +1411,19 @@
         <v>21686</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12977</v>
+        <v>14401</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32624</v>
+        <v>32822</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03055614741374659</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01828469476191865</v>
+        <v>0.02029096403265716</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04596697569911812</v>
+        <v>0.0462454130974977</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1432,19 +1432,19 @@
         <v>40375</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29837</v>
+        <v>28704</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54372</v>
+        <v>54008</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02903316948016954</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02145560283800441</v>
+        <v>0.02064105112809174</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03909880092405865</v>
+        <v>0.03883708067593326</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>210748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>187011</v>
+        <v>187425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>235278</v>
+        <v>234124</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3095059401368253</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2746460654311224</v>
+        <v>0.2752546384864654</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3455319314259125</v>
+        <v>0.3438367662263613</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>222</v>
@@ -1482,19 +1482,19 @@
         <v>230830</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>202340</v>
+        <v>207239</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>257706</v>
+        <v>258022</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.325239226467518</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2850960929740312</v>
+        <v>0.2919986960355956</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3631068708167829</v>
+        <v>0.3635515803660759</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>424</v>
@@ -1503,19 +1503,19 @@
         <v>441578</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>405355</v>
+        <v>404201</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>477299</v>
+        <v>476571</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3175355510484787</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2914880809292558</v>
+        <v>0.2906586115205206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3432224779977231</v>
+        <v>0.3426991082875018</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>28468</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19353</v>
+        <v>18710</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>43654</v>
+        <v>41861</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04180855616413406</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02842248820589812</v>
+        <v>0.02747782523391422</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06411035803479086</v>
+        <v>0.06147773334380711</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>26</v>
@@ -1553,19 +1553,19 @@
         <v>29618</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19176</v>
+        <v>19446</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>41964</v>
+        <v>42236</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04173196294317318</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02701847269951177</v>
+        <v>0.02739905584217376</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05912673245680784</v>
+        <v>0.05951016761241876</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>52</v>
@@ -1574,19 +1574,19 @@
         <v>58086</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>44414</v>
+        <v>43428</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>76311</v>
+        <v>75117</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04176946618955027</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03193800216132712</v>
+        <v>0.03122886371922577</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05487459644597198</v>
+        <v>0.05401641424106975</v>
       </c>
     </row>
     <row r="16">
@@ -1607,19 +1607,19 @@
         <v>376784</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>350187</v>
+        <v>350922</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>401960</v>
+        <v>401991</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6163842812947998</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5728746355541926</v>
+        <v>0.5740769139777948</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6575695788397724</v>
+        <v>0.6576201220515369</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>348</v>
@@ -1628,19 +1628,19 @@
         <v>399869</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>376268</v>
+        <v>374485</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>423517</v>
+        <v>422324</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6501076224315706</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6117364017919094</v>
+        <v>0.6088382517080013</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6885537842609332</v>
+        <v>0.6866138332203546</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>686</v>
@@ -1649,19 +1649,19 @@
         <v>776653</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>741782</v>
+        <v>737910</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>812108</v>
+        <v>812072</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6332982146495392</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6048631154498051</v>
+        <v>0.6017062334856923</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6622082533174355</v>
+        <v>0.6621788772215298</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>22008</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13969</v>
+        <v>14789</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32440</v>
+        <v>34854</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03600317422548163</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02285130823334876</v>
+        <v>0.02419371949808846</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0530683795800339</v>
+        <v>0.05701821541639365</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1699,19 +1699,19 @@
         <v>18962</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11596</v>
+        <v>10793</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29543</v>
+        <v>30497</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03082903923263005</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01885217520863697</v>
+        <v>0.01754747949180845</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04803149624718529</v>
+        <v>0.04958214914145949</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -1720,19 +1720,19 @@
         <v>40970</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29485</v>
+        <v>29217</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54881</v>
+        <v>55872</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03340808810745482</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02404271907865375</v>
+        <v>0.02382395368548169</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04475066693602807</v>
+        <v>0.04555907592809763</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>189796</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>164151</v>
+        <v>165044</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>213897</v>
+        <v>214374</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3104897275844817</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2685364538967756</v>
+        <v>0.2699963052428905</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3499157465736114</v>
+        <v>0.3506967478633049</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>156</v>
@@ -1770,19 +1770,19 @@
         <v>176182</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>153307</v>
+        <v>150270</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>199171</v>
+        <v>196904</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2864361745450945</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2492469054126112</v>
+        <v>0.244308454363477</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3238113320077329</v>
+        <v>0.3201256692470966</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>322</v>
@@ -1791,19 +1791,19 @@
         <v>365978</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>335297</v>
+        <v>331496</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>401425</v>
+        <v>399578</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2984256740435566</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2734074718030853</v>
+        <v>0.2703085580476697</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3273298293814265</v>
+        <v>0.3258233044737265</v>
       </c>
     </row>
     <row r="19">
@@ -1820,19 +1820,19 @@
         <v>23816</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15033</v>
+        <v>15270</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35662</v>
+        <v>36255</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03896028492060182</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02459281636113976</v>
+        <v>0.02498062019377496</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05833965557650279</v>
+        <v>0.05931062632056773</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1841,19 +1841,19 @@
         <v>27483</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17547</v>
+        <v>17418</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40024</v>
+        <v>40074</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0446820608251493</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02852752877333418</v>
+        <v>0.02831822191975913</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06507074615505617</v>
+        <v>0.06515251559211487</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -1862,19 +1862,19 @@
         <v>51299</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37726</v>
+        <v>38314</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69072</v>
+        <v>67976</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04183004020160351</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03076261391694579</v>
+        <v>0.03124163178737845</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0563228545302912</v>
+        <v>0.05542861402120276</v>
       </c>
     </row>
     <row r="20">
@@ -1895,19 +1895,19 @@
         <v>268846</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247945</v>
+        <v>248320</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>290122</v>
+        <v>291590</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6260536558820501</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5773827922179526</v>
+        <v>0.5782567233997463</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6755988109223758</v>
+        <v>0.679018622635488</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>261</v>
@@ -1916,19 +1916,19 @@
         <v>289411</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>267019</v>
+        <v>267395</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>311270</v>
+        <v>310607</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6462950488629825</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5962909619534698</v>
+        <v>0.5971295040417396</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6951094334205649</v>
+        <v>0.693629379637469</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>505</v>
@@ -1937,19 +1937,19 @@
         <v>558257</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>525798</v>
+        <v>527616</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>588685</v>
+        <v>584429</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6363862989252419</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.59938492811137</v>
+        <v>0.6014578437469462</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6710732027376953</v>
+        <v>0.6662214599104066</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>9402</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4324</v>
+        <v>4214</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17219</v>
+        <v>17016</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02189452639955521</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01006933735392073</v>
+        <v>0.00981378220966119</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0400967465316622</v>
+        <v>0.039623852450774</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -1987,19 +1987,19 @@
         <v>12157</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6303</v>
+        <v>6113</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21336</v>
+        <v>21938</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02714891912759284</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01407513325422349</v>
+        <v>0.01365166341550614</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04764619931230989</v>
+        <v>0.04899055836352464</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -2008,19 +2008,19 @@
         <v>21559</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14198</v>
+        <v>12816</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33836</v>
+        <v>32507</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02457674123124683</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0161854638749941</v>
+        <v>0.01460950873222791</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03857177113964301</v>
+        <v>0.03705591315536225</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>132648</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>112522</v>
+        <v>114011</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>153057</v>
+        <v>153453</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3088939709727262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2620264052660604</v>
+        <v>0.2654953568774923</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3564199848396272</v>
+        <v>0.3573412816097464</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>116</v>
@@ -2058,19 +2058,19 @@
         <v>126286</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>107250</v>
+        <v>106743</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147185</v>
+        <v>145388</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2820143005317565</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2395034569366498</v>
+        <v>0.238371749179996</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3286846975405515</v>
+        <v>0.3246721435874614</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>238</v>
@@ -2079,19 +2079,19 @@
         <v>258934</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>232344</v>
+        <v>232926</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>289303</v>
+        <v>286210</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2951726801481863</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2648613068304471</v>
+        <v>0.2655246490440922</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3297913731058454</v>
+        <v>0.3262656505152043</v>
       </c>
     </row>
     <row r="23">
@@ -2108,19 +2108,19 @@
         <v>20687</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12597</v>
+        <v>13342</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31674</v>
+        <v>31554</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04817430447980404</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02933491415929338</v>
+        <v>0.03106818665388206</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0737582815252813</v>
+        <v>0.07347959640616138</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -2129,19 +2129,19 @@
         <v>21050</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12415</v>
+        <v>12621</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32189</v>
+        <v>31697</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04700725162757981</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02772373225189681</v>
+        <v>0.02818355445844975</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07188267521195726</v>
+        <v>0.07078432926386416</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>39</v>
@@ -2150,19 +2150,19 @@
         <v>41737</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>29414</v>
+        <v>30373</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56365</v>
+        <v>57690</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04757855790515222</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03353036708309304</v>
+        <v>0.03462340015649832</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06425354979412168</v>
+        <v>0.06576333634269745</v>
       </c>
     </row>
     <row r="24">
@@ -2183,19 +2183,19 @@
         <v>209623</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>189538</v>
+        <v>189671</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>225135</v>
+        <v>226326</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6766715208637983</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6118358903447446</v>
+        <v>0.6122656498373708</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7267424352245162</v>
+        <v>0.7305879179900595</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>227</v>
@@ -2204,19 +2204,19 @@
         <v>231529</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>214084</v>
+        <v>212539</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>249366</v>
+        <v>249231</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6540436932478186</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6047637743812626</v>
+        <v>0.6004005863114199</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7044320279077992</v>
+        <v>0.7040514617326428</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>418</v>
@@ -2225,19 +2225,19 @@
         <v>441152</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>414845</v>
+        <v>414718</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>467076</v>
+        <v>465309</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6646040675963021</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6249715950158383</v>
+        <v>0.6247801070350339</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7036589797018874</v>
+        <v>0.7009966068542183</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>3998</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10055</v>
+        <v>10034</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01290518920019965</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003221319629344598</v>
+        <v>0.003232476416097513</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0324594598034807</v>
+        <v>0.03239038126251637</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2275,19 +2275,19 @@
         <v>5173</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1968</v>
+        <v>1951</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11487</v>
+        <v>11046</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01461240815996989</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00556064939354332</v>
+        <v>0.005512327859298059</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03244947504379359</v>
+        <v>0.03120250915524417</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2296,19 +2296,19 @@
         <v>9171</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4063</v>
+        <v>4180</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16529</v>
+        <v>17449</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01381565154612375</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.006121721774149794</v>
+        <v>0.006296735850528681</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02490198340696072</v>
+        <v>0.02628780617105097</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>88108</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72946</v>
+        <v>72143</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>106875</v>
+        <v>107091</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.284416026945954</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2354725981404127</v>
+        <v>0.2328789596923212</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3449960810050253</v>
+        <v>0.3456949636448836</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>96</v>
@@ -2346,19 +2346,19 @@
         <v>101523</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>84162</v>
+        <v>83971</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>119067</v>
+        <v>119776</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2867912178013265</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2377493480126546</v>
+        <v>0.2372089899144738</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3363502774176451</v>
+        <v>0.3383538131483794</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>175</v>
@@ -2367,19 +2367,19 @@
         <v>189631</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>167229</v>
+        <v>166574</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>217797</v>
+        <v>214411</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2856827196720534</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2519338981306131</v>
+        <v>0.2509471835129362</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3281149341691001</v>
+        <v>0.3230147554906597</v>
       </c>
     </row>
     <row r="27">
@@ -2396,19 +2396,19 @@
         <v>8057</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3943</v>
+        <v>3822</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>15867</v>
+        <v>15223</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02600726299004796</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01272934122087855</v>
+        <v>0.01233814744796332</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0512200547204409</v>
+        <v>0.04913937699068301</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>17</v>
@@ -2417,19 +2417,19 @@
         <v>16813</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9821</v>
+        <v>9937</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>26644</v>
+        <v>24996</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04749572474381737</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02774394471363888</v>
+        <v>0.02807159329964876</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0752665177429086</v>
+        <v>0.07061237750148301</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>25</v>
@@ -2438,19 +2438,19 @@
         <v>24870</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>16897</v>
+        <v>15978</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>35708</v>
+        <v>35954</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0374670907916735</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02545537392438663</v>
+        <v>0.0240704130205714</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05379486572801219</v>
+        <v>0.05416503238984001</v>
       </c>
     </row>
     <row r="28">
@@ -2471,19 +2471,19 @@
         <v>177456</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>159392</v>
+        <v>160498</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>192230</v>
+        <v>191652</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7130052317898913</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.640424124082086</v>
+        <v>0.6448667785879412</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7723644281673009</v>
+        <v>0.7700438901460567</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>263</v>
@@ -2492,19 +2492,19 @@
         <v>293119</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>273799</v>
+        <v>273750</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>309356</v>
+        <v>311445</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7535592619387763</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7038909427359832</v>
+        <v>0.7037653237951946</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7953032825046754</v>
+        <v>0.8006736441151135</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>423</v>
@@ -2513,19 +2513,19 @@
         <v>470576</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>444855</v>
+        <v>446474</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>491779</v>
+        <v>493208</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7377356662043546</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6974126992158931</v>
+        <v>0.6999499777972555</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.770976771970513</v>
+        <v>0.7732163808878453</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>6489</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2281</v>
+        <v>2243</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14608</v>
+        <v>14879</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02607214426539543</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009166748417948798</v>
+        <v>0.009010586300040667</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05869258872880775</v>
+        <v>0.05978072599249211</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -2563,19 +2563,19 @@
         <v>4186</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1078</v>
+        <v>1013</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10397</v>
+        <v>9593</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01076080740630142</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002771905482524757</v>
+        <v>0.002604082618645409</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02672938115610052</v>
+        <v>0.02466215040233504</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -2584,19 +2584,19 @@
         <v>10675</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5349</v>
+        <v>5407</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>20630</v>
+        <v>21274</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01673506948882135</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008385730376954932</v>
+        <v>0.008476006601102752</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03234265712368019</v>
+        <v>0.03335116871795814</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>58682</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>45033</v>
+        <v>45476</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>74857</v>
+        <v>74929</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2357798765962867</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1809403184521542</v>
+        <v>0.1827205689401926</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3007689080035191</v>
+        <v>0.3010604978781206</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>60</v>
@@ -2634,19 +2634,19 @@
         <v>66461</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>52070</v>
+        <v>51439</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>82852</v>
+        <v>84090</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1708611151090556</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.133864436487568</v>
+        <v>0.1322401767334826</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2129979390725219</v>
+        <v>0.2161824654043729</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>110</v>
@@ -2655,19 +2655,19 @@
         <v>125144</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>105187</v>
+        <v>104889</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>147184</v>
+        <v>147244</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.196191476446313</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1649047721613942</v>
+        <v>0.1644383118486733</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2307450623823059</v>
+        <v>0.2308384172178983</v>
       </c>
     </row>
     <row r="31">
@@ -2684,19 +2684,19 @@
         <v>6258</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2549</v>
+        <v>2176</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>13289</v>
+        <v>13708</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02514274734842665</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01024151001953845</v>
+        <v>0.008741352436186909</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05339569977568337</v>
+        <v>0.05507891418538752</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -2705,19 +2705,19 @@
         <v>26290</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>17563</v>
+        <v>16638</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>37928</v>
+        <v>37963</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06758641093628087</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0451502816843369</v>
+        <v>0.04277418262115999</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09750748262664703</v>
+        <v>0.09759541892778079</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>30</v>
@@ -2726,19 +2726,19 @@
         <v>32547</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>22393</v>
+        <v>21868</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>46105</v>
+        <v>44965</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05102550757756832</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03510669335006121</v>
+        <v>0.03428258346803182</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07228034360339471</v>
+        <v>0.07049369020826986</v>
       </c>
     </row>
     <row r="32">
@@ -2759,19 +2759,19 @@
         <v>2162883</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2097461</v>
+        <v>2107438</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2215665</v>
+        <v>2222293</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6324802283402595</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6133493868600493</v>
+        <v>0.6162669573543206</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6479150529899986</v>
+        <v>0.6498533083020606</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2133</v>
@@ -2780,19 +2780,19 @@
         <v>2312049</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2252613</v>
+        <v>2254627</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2373933</v>
+        <v>2369594</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6505296478309722</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6338064808942335</v>
+        <v>0.6343732405299802</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6679417962311314</v>
+        <v>0.6667209065917047</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4158</v>
@@ -2801,19 +2801,19 @@
         <v>4474931</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4399473</v>
+        <v>4390104</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4561124</v>
+        <v>4561686</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6416788868466724</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6308586181760962</v>
+        <v>0.6295151029025172</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6540384128592316</v>
+        <v>0.6541190070536096</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>107529</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>88638</v>
+        <v>86022</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>129868</v>
+        <v>127862</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03144423215307094</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0259199288011123</v>
+        <v>0.02515502401502953</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03797670867510351</v>
+        <v>0.03738986369802896</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>90</v>
@@ -2851,19 +2851,19 @@
         <v>95576</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>78300</v>
+        <v>75865</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>118258</v>
+        <v>116791</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02689166906771153</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02203091143182783</v>
+        <v>0.02134580356298643</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03327376803973597</v>
+        <v>0.03286093385893399</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>194</v>
@@ -2872,19 +2872,19 @@
         <v>203105</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>175539</v>
+        <v>175817</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>232443</v>
+        <v>234255</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02912407591908953</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02517127709178358</v>
+        <v>0.02521106298712206</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03333089214003773</v>
+        <v>0.0335907406379239</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>1016385</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>965556</v>
+        <v>960460</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1075649</v>
+        <v>1071546</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.297216009332859</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2823524192327619</v>
+        <v>0.2808621320412155</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.314546405534818</v>
+        <v>0.3133464263353175</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>942</v>
@@ -2922,19 +2922,19 @@
         <v>1005887</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>950938</v>
+        <v>950954</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1063115</v>
+        <v>1062778</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2830214643512438</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2675607382729964</v>
+        <v>0.267565226392894</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2991234341391248</v>
+        <v>0.2990286090334428</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1893</v>
@@ -2943,19 +2943,19 @@
         <v>2022272</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1948675</v>
+        <v>1938732</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2099509</v>
+        <v>2101319</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2899819388960241</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2794285575917974</v>
+        <v>0.2780028037711394</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3010572024126567</v>
+        <v>0.3013168379080539</v>
       </c>
     </row>
     <row r="35">
@@ -2972,19 +2972,19 @@
         <v>142116</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>115741</v>
+        <v>120281</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>167726</v>
+        <v>172671</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04155819744811518</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03384566356550287</v>
+        <v>0.03517308860647481</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04904729460277674</v>
+        <v>0.05049322007376019</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>146</v>
@@ -2993,19 +2993,19 @@
         <v>159575</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>132280</v>
+        <v>137340</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>185420</v>
+        <v>187138</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04489892557857706</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03721902064283099</v>
+        <v>0.03864264193462147</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05217069665148352</v>
+        <v>0.05265405878929837</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>277</v>
@@ -3014,19 +3014,19 @@
         <v>301691</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>265704</v>
+        <v>266947</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>336111</v>
+        <v>336786</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04326075731441438</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03810043427001802</v>
+        <v>0.03827860488532456</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04819640019110853</v>
+        <v>0.04829319777385219</v>
       </c>
     </row>
     <row r="36">
@@ -3290,19 +3290,19 @@
         <v>218503</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>197442</v>
+        <v>196533</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>239639</v>
+        <v>238934</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5209116003687199</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4707018931051262</v>
+        <v>0.4685337234356107</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5712999842658167</v>
+        <v>0.5696181745147473</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>211</v>
@@ -3311,19 +3311,19 @@
         <v>205146</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>184622</v>
+        <v>185557</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>223046</v>
+        <v>224583</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5183664796249547</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4665063089539044</v>
+        <v>0.4688683064912613</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5635961526866488</v>
+        <v>0.5674791625045312</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>420</v>
@@ -3332,19 +3332,19 @@
         <v>423649</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>395217</v>
+        <v>395715</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>452245</v>
+        <v>449872</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5196760483253794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4847985556791068</v>
+        <v>0.4854103136518284</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5547529292425859</v>
+        <v>0.5518428965339732</v>
       </c>
     </row>
     <row r="5">
@@ -3361,19 +3361,19 @@
         <v>16633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9506</v>
+        <v>9850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26106</v>
+        <v>25573</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03965202508589979</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02266232014746532</v>
+        <v>0.02348231643265368</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06223702493793342</v>
+        <v>0.06096700189855953</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -3382,19 +3382,19 @@
         <v>7817</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3046</v>
+        <v>3701</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14633</v>
+        <v>14976</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01975136285247491</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00769591872648135</v>
+        <v>0.009352792179498323</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03697492299605186</v>
+        <v>0.03784236748287217</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -3403,19 +3403,19 @@
         <v>24449</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17008</v>
+        <v>16307</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36118</v>
+        <v>36262</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02999106737040779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02086327412529746</v>
+        <v>0.02000385066556841</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04430522302034466</v>
+        <v>0.04448110824439033</v>
       </c>
     </row>
     <row r="6">
@@ -3432,19 +3432,19 @@
         <v>120003</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>101801</v>
+        <v>102603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>138934</v>
+        <v>140319</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2860869039682282</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.242694670335803</v>
+        <v>0.2446056173524513</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3312184849362554</v>
+        <v>0.3345198441146822</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>130</v>
@@ -3453,19 +3453,19 @@
         <v>127814</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>112019</v>
+        <v>111393</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>147546</v>
+        <v>148933</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3229630114381534</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2830503926311836</v>
+        <v>0.2814700202274055</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3728207356990603</v>
+        <v>0.3763256480483705</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>241</v>
@@ -3474,19 +3474,19 @@
         <v>247817</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>220246</v>
+        <v>222617</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>274624</v>
+        <v>275397</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3039887461682591</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2701684597902995</v>
+        <v>0.2730763088855315</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3368720584327575</v>
+        <v>0.3378202182051567</v>
       </c>
     </row>
     <row r="7">
@@ -3503,19 +3503,19 @@
         <v>66337</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51412</v>
+        <v>52354</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82528</v>
+        <v>81479</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1581469602308936</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1225665083564989</v>
+        <v>0.1248117230745248</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1967479345461414</v>
+        <v>0.1942453771714379</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -3524,19 +3524,19 @@
         <v>55936</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43439</v>
+        <v>42272</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70767</v>
+        <v>70057</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1413411945201716</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1097618082894794</v>
+        <v>0.1068142908559161</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1788150431667622</v>
+        <v>0.1770218432056517</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>115</v>
@@ -3545,19 +3545,19 @@
         <v>122273</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>102631</v>
+        <v>102617</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143622</v>
+        <v>142690</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1499884482174063</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1258939338845202</v>
+        <v>0.125876629399034</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1761757806755671</v>
+        <v>0.1750324802855017</v>
       </c>
     </row>
     <row r="8">
@@ -3578,19 +3578,19 @@
         <v>302532</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>275836</v>
+        <v>276407</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>324950</v>
+        <v>327381</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.512335874358927</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4671260453746097</v>
+        <v>0.4680921406188305</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5503003912413331</v>
+        <v>0.5544165457465369</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>286</v>
@@ -3599,19 +3599,19 @@
         <v>276301</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>255013</v>
+        <v>252102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>299454</v>
+        <v>299990</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4902914775669993</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4525172705708002</v>
+        <v>0.4473508827576769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5313766687409792</v>
+        <v>0.5323282888388501</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>580</v>
@@ -3620,19 +3620,19 @@
         <v>578833</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>543678</v>
+        <v>547990</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>613629</v>
+        <v>614878</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5015710991713502</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4711081255394824</v>
+        <v>0.4748445779636163</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5317226958663126</v>
+        <v>0.5328043416283923</v>
       </c>
     </row>
     <row r="9">
@@ -3649,19 +3649,19 @@
         <v>18337</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11440</v>
+        <v>10711</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28728</v>
+        <v>27469</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03105395708793844</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0193737609864216</v>
+        <v>0.0181392609866614</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04865096440411197</v>
+        <v>0.04651851682348049</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -3670,19 +3670,19 @@
         <v>15771</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9163</v>
+        <v>9372</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25154</v>
+        <v>25057</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02798530944146923</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01626038592291915</v>
+        <v>0.01662966990657195</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04463606752310482</v>
+        <v>0.04446253505953907</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>35</v>
@@ -3691,19 +3691,19 @@
         <v>34108</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23967</v>
+        <v>24538</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>45831</v>
+        <v>47550</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02955546736486179</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02076748983388907</v>
+        <v>0.02126235617578422</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03971376608030245</v>
+        <v>0.04120314556699593</v>
       </c>
     </row>
     <row r="10">
@@ -3720,19 +3720,19 @@
         <v>173270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152679</v>
+        <v>151856</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>198280</v>
+        <v>196891</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2934311058312505</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2585613132687405</v>
+        <v>0.2571676327323458</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3357847603401055</v>
+        <v>0.3334327589389984</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>179</v>
@@ -3741,19 +3741,19 @@
         <v>177303</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156026</v>
+        <v>157985</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>199937</v>
+        <v>200810</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3146205243855303</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2768653457757809</v>
+        <v>0.2803427372123311</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.354785689573773</v>
+        <v>0.3563348714251939</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>348</v>
@@ -3762,19 +3762,19 @@
         <v>350572</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>318649</v>
+        <v>320884</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>381213</v>
+        <v>382165</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3037783758992533</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2761164575265263</v>
+        <v>0.27805257465198</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3303292336685797</v>
+        <v>0.3311538598257424</v>
       </c>
     </row>
     <row r="11">
@@ -3791,19 +3791,19 @@
         <v>97375</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79970</v>
+        <v>80995</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>116722</v>
+        <v>116530</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1649044527578654</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.135428392061414</v>
+        <v>0.1371641150459645</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1976670033438294</v>
+        <v>0.1973424257118052</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -3812,19 +3812,19 @@
         <v>95094</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79950</v>
+        <v>78836</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>112628</v>
+        <v>113226</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1687427158851196</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1418708718615385</v>
+        <v>0.1398925981515099</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1998566457379742</v>
+        <v>0.2009171836405713</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>185</v>
@@ -3833,19 +3833,19 @@
         <v>192469</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>168470</v>
+        <v>168978</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>218173</v>
+        <v>216883</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1667787630447673</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1459831034208711</v>
+        <v>0.1464230447739789</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.189051851414527</v>
+        <v>0.1879334071756527</v>
       </c>
     </row>
     <row r="12">
@@ -3866,19 +3866,19 @@
         <v>357077</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>331593</v>
+        <v>328913</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>384834</v>
+        <v>384016</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5336702110892663</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4955828823108903</v>
+        <v>0.4915776878165452</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5751548561539364</v>
+        <v>0.5739310227235159</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>346</v>
@@ -3887,19 +3887,19 @@
         <v>337864</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>312084</v>
+        <v>314465</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>362753</v>
+        <v>364933</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5108430915230583</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4718629685187801</v>
+        <v>0.4754638758673853</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5484745091796068</v>
+        <v>0.5517704770154468</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>689</v>
@@ -3908,19 +3908,19 @@
         <v>694942</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>659794</v>
+        <v>659275</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>730944</v>
+        <v>732055</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5223227951348299</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4959058874750714</v>
+        <v>0.4955154849690619</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5493826237884254</v>
+        <v>0.5502178073982903</v>
       </c>
     </row>
     <row r="13">
@@ -3937,19 +3937,19 @@
         <v>19374</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11478</v>
+        <v>12661</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29446</v>
+        <v>31500</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02895563099756352</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01715394590201726</v>
+        <v>0.01892219216815536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04400866754701554</v>
+        <v>0.04707848996459347</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3958,19 +3958,19 @@
         <v>15593</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9376</v>
+        <v>9434</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25080</v>
+        <v>25804</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02357644541749251</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01417687593462325</v>
+        <v>0.01426416617380683</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03792035781329799</v>
+        <v>0.03901460390142949</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -3979,19 +3979,19 @@
         <v>34967</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24642</v>
+        <v>24682</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48984</v>
+        <v>47778</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02628162492789138</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01852130275755939</v>
+        <v>0.01855093704705158</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03681698241985149</v>
+        <v>0.0359099267684613</v>
       </c>
     </row>
     <row r="14">
@@ -4008,19 +4008,19 @@
         <v>203274</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>178943</v>
+        <v>180271</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>226572</v>
+        <v>228799</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3038041926202418</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2674397266039915</v>
+        <v>0.2694246467811601</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3386234882825686</v>
+        <v>0.3419523924585921</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>222</v>
@@ -4029,19 +4029,19 @@
         <v>226874</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>204560</v>
+        <v>201726</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>251661</v>
+        <v>249550</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3430274402503745</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3092892382805095</v>
+        <v>0.3050051585996188</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3805057886095151</v>
+        <v>0.3773132187204667</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>418</v>
@@ -4050,19 +4050,19 @@
         <v>430148</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>395223</v>
+        <v>396849</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>464216</v>
+        <v>462124</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3233021632096565</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2970524776783163</v>
+        <v>0.2982745333112545</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3489080840044024</v>
+        <v>0.3473358847487003</v>
       </c>
     </row>
     <row r="15">
@@ -4079,19 +4079,19 @@
         <v>89371</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>72182</v>
+        <v>71362</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>109443</v>
+        <v>109008</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1335699652929285</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1078792008926847</v>
+        <v>0.1066547683811622</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1635683629904586</v>
+        <v>0.1629186748598218</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>83</v>
@@ -4100,19 +4100,19 @@
         <v>82969</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>67400</v>
+        <v>67341</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>102053</v>
+        <v>101058</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.125446863639908</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1019069560584338</v>
+        <v>0.1018173693563598</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1543017586033366</v>
+        <v>0.1527975882375678</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>163</v>
@@ -4121,19 +4121,19 @@
         <v>172340</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>148074</v>
+        <v>148185</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>197055</v>
+        <v>196852</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1295319519540294</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1112930839942296</v>
+        <v>0.1113770616778586</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1481077895045509</v>
+        <v>0.1479549415738858</v>
       </c>
     </row>
     <row r="16">
@@ -4154,19 +4154,19 @@
         <v>337819</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>313315</v>
+        <v>310467</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>365804</v>
+        <v>363418</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5229002107759194</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4849709715579016</v>
+        <v>0.4805628028380574</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5662187475080139</v>
+        <v>0.5625241979435065</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>320</v>
@@ -4175,19 +4175,19 @@
         <v>344288</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>314788</v>
+        <v>319021</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>366806</v>
+        <v>369410</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5304270558858942</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4849782850170143</v>
+        <v>0.4914998389638363</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5651195446163825</v>
+        <v>0.5691317113783174</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>631</v>
@@ -4196,19 +4196,19 @@
         <v>682107</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>645152</v>
+        <v>644132</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>721647</v>
+        <v>717653</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5266724340668673</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4981386156555683</v>
+        <v>0.4973515713382028</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5572028535323166</v>
+        <v>0.5541190151103195</v>
       </c>
     </row>
     <row r="17">
@@ -4225,19 +4225,19 @@
         <v>19254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11314</v>
+        <v>11449</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30291</v>
+        <v>29790</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02980303478304191</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01751224572411499</v>
+        <v>0.01772090827335791</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04688676825208805</v>
+        <v>0.04611133987455943</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -4246,19 +4246,19 @@
         <v>22662</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15422</v>
+        <v>14572</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33901</v>
+        <v>34045</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03491480574170309</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02375917056947941</v>
+        <v>0.02244995918227198</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05222930871200706</v>
+        <v>0.0524517956781367</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -4267,19 +4267,19 @@
         <v>41917</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29990</v>
+        <v>29580</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>58483</v>
+        <v>56220</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03236489718176437</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02315584590556538</v>
+        <v>0.02283917624705352</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04515639834371119</v>
+        <v>0.04340864263155993</v>
       </c>
     </row>
     <row r="18">
@@ -4296,19 +4296,19 @@
         <v>187191</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>164339</v>
+        <v>163968</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>211520</v>
+        <v>212307</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2897484444378913</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2543763010249582</v>
+        <v>0.2538013705998755</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3274064626979906</v>
+        <v>0.3286240023486516</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>183</v>
@@ -4317,19 +4317,19 @@
         <v>196442</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>175554</v>
+        <v>174216</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>221389</v>
+        <v>220992</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3026487390026005</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2704672986843024</v>
+        <v>0.2684057496546486</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3410823054460647</v>
+        <v>0.3404708215236631</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>350</v>
@@ -4338,19 +4338,19 @@
         <v>383634</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>352077</v>
+        <v>351356</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>422711</v>
+        <v>419661</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2962136753422173</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2718475796351567</v>
+        <v>0.2712908728855653</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.326385875734936</v>
+        <v>0.3240316355251773</v>
       </c>
     </row>
     <row r="19">
@@ -4367,19 +4367,19 @@
         <v>102871</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82124</v>
+        <v>82866</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123144</v>
+        <v>123497</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1592309223460152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1271177331227015</v>
+        <v>0.1282658221095248</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1906107678285079</v>
+        <v>0.1911577251491718</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -4388,19 +4388,19 @@
         <v>85684</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69580</v>
+        <v>69298</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>103894</v>
+        <v>105325</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1320093993698021</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1071991196481013</v>
+        <v>0.1067640543372942</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1600635012397263</v>
+        <v>0.1622696328994096</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>166</v>
@@ -4409,19 +4409,19 @@
         <v>188555</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>164766</v>
+        <v>162329</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>216719</v>
+        <v>214511</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1455883321922919</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1272198252942363</v>
+        <v>0.1253384034869319</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1673341138355136</v>
+        <v>0.1656294872617464</v>
       </c>
     </row>
     <row r="20">
@@ -4442,19 +4442,19 @@
         <v>243154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>219680</v>
+        <v>218600</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265229</v>
+        <v>265276</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5087785294046064</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4596613389004429</v>
+        <v>0.4574014674243335</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5549680965982202</v>
+        <v>0.5550663979793117</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>224</v>
@@ -4463,19 +4463,19 @@
         <v>252819</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>230223</v>
+        <v>230466</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>277259</v>
+        <v>275879</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5088455946989595</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4633655304307261</v>
+        <v>0.4638558071068913</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5580352950933134</v>
+        <v>0.5552572452580223</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>444</v>
@@ -4484,19 +4484,19 @@
         <v>495974</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>464879</v>
+        <v>463205</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>527974</v>
+        <v>529902</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5088127132911474</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.476912933764994</v>
+        <v>0.4751958351978056</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5416412912856565</v>
+        <v>0.5436195067482908</v>
       </c>
     </row>
     <row r="21">
@@ -4513,19 +4513,19 @@
         <v>11550</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5520</v>
+        <v>5392</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20913</v>
+        <v>21233</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02416678331990361</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01154958674268926</v>
+        <v>0.01128281381486858</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04375901399025336</v>
+        <v>0.04442744697218363</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -4534,19 +4534,19 @@
         <v>10278</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5515</v>
+        <v>4557</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19144</v>
+        <v>18244</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02068676538315015</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01109992156588139</v>
+        <v>0.009172429544368955</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03853119853929562</v>
+        <v>0.0367197869443428</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>19</v>
@@ -4555,19 +4555,19 @@
         <v>21828</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13510</v>
+        <v>13431</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33450</v>
+        <v>33247</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02239298154272499</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01385976926921891</v>
+        <v>0.01377873236124238</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03431590793960437</v>
+        <v>0.03410712815617242</v>
       </c>
     </row>
     <row r="22">
@@ -4584,19 +4584,19 @@
         <v>143723</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>122931</v>
+        <v>122830</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>164575</v>
+        <v>165659</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3007273213867921</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2572223967216869</v>
+        <v>0.2570100783002501</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3443572934807828</v>
+        <v>0.3466256017492407</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>135</v>
@@ -4605,19 +4605,19 @@
         <v>159234</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>135312</v>
+        <v>139326</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>181387</v>
+        <v>183447</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3204869447740469</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2723410239469714</v>
+        <v>0.2804186559819173</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3650751998634954</v>
+        <v>0.3692211564713592</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>260</v>
@@ -4626,19 +4626,19 @@
         <v>302957</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>275225</v>
+        <v>271603</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>332784</v>
+        <v>336058</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3107990094406161</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2823491492946101</v>
+        <v>0.2786340878889165</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3413988551179942</v>
+        <v>0.3447568391614933</v>
       </c>
     </row>
     <row r="23">
@@ -4655,19 +4655,19 @@
         <v>79491</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>64973</v>
+        <v>63285</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>98701</v>
+        <v>99452</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1663273658886978</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1359495258207033</v>
+        <v>0.1324175341117331</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2065227305198677</v>
+        <v>0.2080933701901042</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>68</v>
@@ -4676,19 +4676,19 @@
         <v>77780</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>62322</v>
+        <v>61215</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>95026</v>
+        <v>96562</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1565472535973622</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1254338791718815</v>
+        <v>0.1232066742227265</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.191257486018609</v>
+        <v>0.1943493462411386</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>137</v>
@@ -4697,19 +4697,19 @@
         <v>157271</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>135129</v>
+        <v>134219</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>181505</v>
+        <v>182704</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1613423396966887</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.13862653188867</v>
+        <v>0.1376937076906437</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1862038645664978</v>
+        <v>0.187433005381545</v>
       </c>
     </row>
     <row r="24">
@@ -4730,19 +4730,19 @@
         <v>186014</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>165922</v>
+        <v>168936</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>203902</v>
+        <v>204932</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5563793744430825</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4962814965250251</v>
+        <v>0.5052973587662781</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6098832953168735</v>
+        <v>0.6129621451541625</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>196</v>
@@ -4751,19 +4751,19 @@
         <v>206668</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>185508</v>
+        <v>187404</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>226616</v>
+        <v>227923</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.547085510262762</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4910701552614283</v>
+        <v>0.4960909046550138</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5998896210799092</v>
+        <v>0.6033500508605066</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>376</v>
@@ -4772,19 +4772,19 @@
         <v>392682</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>367971</v>
+        <v>365457</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>419025</v>
+        <v>420604</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5514490160953612</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5167465564652908</v>
+        <v>0.5132166632587247</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5884422033452675</v>
+        <v>0.5906589686707618</v>
       </c>
     </row>
     <row r="25">
@@ -4801,19 +4801,19 @@
         <v>4715</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1759</v>
+        <v>1777</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9673</v>
+        <v>10711</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01410220911539112</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005260278803156485</v>
+        <v>0.00531606876129871</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02893242868453529</v>
+        <v>0.03203682538558385</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -4822,19 +4822,19 @@
         <v>10273</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4998</v>
+        <v>5161</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17745</v>
+        <v>19417</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02719529987350458</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01323172425671623</v>
+        <v>0.01366102770413443</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04697313845958929</v>
+        <v>0.05139877379934053</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -4843,19 +4843,19 @@
         <v>14988</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8982</v>
+        <v>8972</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24595</v>
+        <v>23764</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02104804220099045</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01261315436722126</v>
+        <v>0.01259893753456885</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03453848705842421</v>
+        <v>0.0333718273541202</v>
       </c>
     </row>
     <row r="26">
@@ -4872,19 +4872,19 @@
         <v>89043</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>73755</v>
+        <v>72998</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>105691</v>
+        <v>105672</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2663314486919184</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.220605709984635</v>
+        <v>0.2183416477655496</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3161291567128278</v>
+        <v>0.3160723049702829</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>93</v>
@@ -4893,19 +4893,19 @@
         <v>104479</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>87119</v>
+        <v>87069</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>122061</v>
+        <v>122912</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2765742049751322</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2306187900115088</v>
+        <v>0.2304866132541739</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3231168316269236</v>
+        <v>0.3253691877122986</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>179</v>
@@ -4914,19 +4914,19 @@
         <v>193522</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>170999</v>
+        <v>169061</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>219771</v>
+        <v>218712</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2717651905634159</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2401361877554754</v>
+        <v>0.2374142226376644</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3086272837507326</v>
+        <v>0.3071395785258675</v>
       </c>
     </row>
     <row r="27">
@@ -4943,19 +4943,19 @@
         <v>54558</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>42943</v>
+        <v>41995</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>69290</v>
+        <v>68673</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1631869677496079</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1284450750724644</v>
+        <v>0.1256104408174748</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2072494807536271</v>
+        <v>0.2054035406471477</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>55</v>
@@ -4964,19 +4964,19 @@
         <v>56341</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>43645</v>
+        <v>43926</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>72489</v>
+        <v>70654</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1491449848886012</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1155353266794062</v>
+        <v>0.1162793057903258</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1918896514622552</v>
+        <v>0.187033236712997</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>109</v>
@@ -4985,19 +4985,19 @@
         <v>110900</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>93614</v>
+        <v>91802</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>131235</v>
+        <v>130030</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1557377511402325</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1314630933335678</v>
+        <v>0.1289189037986863</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1842946568317462</v>
+        <v>0.1826029574571699</v>
       </c>
     </row>
     <row r="28">
@@ -5018,19 +5018,19 @@
         <v>155444</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>143209</v>
+        <v>141994</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>170462</v>
+        <v>169162</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6048463596533133</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5572361206201337</v>
+        <v>0.552510069377534</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6632816122156177</v>
+        <v>0.6582221656834328</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>176</v>
@@ -5039,19 +5039,19 @@
         <v>230808</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>209802</v>
+        <v>208622</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>255015</v>
+        <v>251922</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5767768213782364</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5242847190386233</v>
+        <v>0.5213352376805016</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6372682550761496</v>
+        <v>0.6295384823254129</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>360</v>
@@ -5060,19 +5060,19 @@
         <v>386253</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>358806</v>
+        <v>357604</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>414271</v>
+        <v>412269</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5877539629907514</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5459897099578215</v>
+        <v>0.5441603439135071</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6303891236013169</v>
+        <v>0.6273428501389088</v>
       </c>
     </row>
     <row r="29">
@@ -5089,19 +5089,19 @@
         <v>5143</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1600</v>
+        <v>1617</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10376</v>
+        <v>10480</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02001169904845597</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006225390935294685</v>
+        <v>0.006290817962472274</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04037485944420299</v>
+        <v>0.04077946437689034</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -5110,19 +5110,19 @@
         <v>5559</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15341</v>
+        <v>14121</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01389050146423777</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003189311613073287</v>
+        <v>0.003207752817552314</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03833525396499736</v>
+        <v>0.03528849709977131</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -5131,19 +5131,19 @@
         <v>10702</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5218</v>
+        <v>5304</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21424</v>
+        <v>22227</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01628431542945747</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007940168195716898</v>
+        <v>0.008071723789432432</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03260114154013549</v>
+        <v>0.03382288443364003</v>
       </c>
     </row>
     <row r="30">
@@ -5160,19 +5160,19 @@
         <v>52843</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>41707</v>
+        <v>42521</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>65436</v>
+        <v>66200</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2056166717768016</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1622837117052014</v>
+        <v>0.1654537170091163</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.254617968235519</v>
+        <v>0.2575894736831049</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>74</v>
@@ -5181,19 +5181,19 @@
         <v>102813</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>83065</v>
+        <v>84349</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>123474</v>
+        <v>124735</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2569242002845601</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2075737722175142</v>
+        <v>0.2107834808100483</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3085554768313216</v>
+        <v>0.3117046504272951</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>136</v>
@@ -5202,19 +5202,19 @@
         <v>155656</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>134353</v>
+        <v>135292</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>181106</v>
+        <v>183338</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2368593883628801</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2044429799678781</v>
+        <v>0.205870895861284</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2755865708168861</v>
+        <v>0.2789827131290058</v>
       </c>
     </row>
     <row r="31">
@@ -5231,19 +5231,19 @@
         <v>43568</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>33290</v>
+        <v>32879</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54568</v>
+        <v>54486</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1695252695214291</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1295338957181476</v>
+        <v>0.1279348691664949</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2123284579345819</v>
+        <v>0.2120079759519801</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>48</v>
@@ -5252,19 +5252,19 @@
         <v>60989</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>45912</v>
+        <v>45568</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>79459</v>
+        <v>77454</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1524084768729657</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1147305326500539</v>
+        <v>0.1138727629362831</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1985631021713192</v>
+        <v>0.1935528127926373</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>98</v>
@@ -5273,19 +5273,19 @@
         <v>104557</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>85826</v>
+        <v>85198</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>124847</v>
+        <v>123415</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.159102333216911</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1305995910910204</v>
+        <v>0.129644948245243</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1899780165502435</v>
+        <v>0.1877989454148854</v>
       </c>
     </row>
     <row r="32">
@@ -5306,19 +5306,19 @@
         <v>1800544</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1743212</v>
+        <v>1737899</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1859688</v>
+        <v>1856203</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5304533200093672</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5135629425466633</v>
+        <v>0.5119977106528035</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5478775047510674</v>
+        <v>0.5468507161135466</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1759</v>
@@ -5327,19 +5327,19 @@
         <v>1853895</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1796897</v>
+        <v>1792466</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1911900</v>
+        <v>1914463</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5230281279618629</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5069475991328501</v>
+        <v>0.5056975642318083</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5393925398779188</v>
+        <v>0.5401158489672195</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3500</v>
@@ -5348,19 +5348,19 @@
         <v>3654439</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3573105</v>
+        <v>3567190</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3738722</v>
+        <v>3739859</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5266603652025651</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5149388689738688</v>
+        <v>0.5140863489528112</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5388067026155419</v>
+        <v>0.5389706972380044</v>
       </c>
     </row>
     <row r="33">
@@ -5377,19 +5377,19 @@
         <v>95006</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>78472</v>
+        <v>77829</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>118128</v>
+        <v>116820</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02798933878433816</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02311846522341529</v>
+        <v>0.02292903123459043</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03480126139815361</v>
+        <v>0.03441595435657473</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>84</v>
@@ -5398,19 +5398,19 @@
         <v>87953</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>70986</v>
+        <v>68642</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>108050</v>
+        <v>109014</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.024813721769945</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02002681159401866</v>
+        <v>0.01936549372209201</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03048360789579132</v>
+        <v>0.0307555107457878</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>175</v>
@@ -5419,19 +5419,19 @@
         <v>182959</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>157999</v>
+        <v>159128</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>210790</v>
+        <v>212588</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02636716231506373</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02277001817482422</v>
+        <v>0.02293270302368387</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03037811011342038</v>
+        <v>0.03063721549268442</v>
       </c>
     </row>
     <row r="34">
@@ -5448,19 +5448,19 @@
         <v>969347</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>919208</v>
+        <v>917245</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1022530</v>
+        <v>1027367</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2855767101037021</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2708054049382126</v>
+        <v>0.2702270509958374</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3012445716317744</v>
+        <v>0.3026697184635918</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1016</v>
@@ -5469,19 +5469,19 @@
         <v>1094959</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1039959</v>
+        <v>1032907</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1151308</v>
+        <v>1149829</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3089139769969997</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2933972863561582</v>
+        <v>0.2914078286244895</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3248115886970461</v>
+        <v>0.3243941583316483</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1932</v>
@@ -5490,19 +5490,19 @@
         <v>2064306</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1989578</v>
+        <v>1987303</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2145233</v>
+        <v>2146995</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2974979099964791</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.286728431189394</v>
+        <v>0.2864005948393025</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3091607415808596</v>
+        <v>0.3094146639365757</v>
       </c>
     </row>
     <row r="35">
@@ -5519,19 +5519,19 @@
         <v>533571</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>488021</v>
+        <v>492647</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>582663</v>
+        <v>578845</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1571938985939024</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1437744804225518</v>
+        <v>0.1451373952279078</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1716566963735141</v>
+        <v>0.1705318568377573</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>486</v>
@@ -5540,19 +5540,19 @@
         <v>514794</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>474258</v>
+        <v>472754</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>559323</v>
+        <v>554661</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1452357703090898</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1337995162809068</v>
+        <v>0.1333751842801375</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1577984943530133</v>
+        <v>0.1564832178878363</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>973</v>
@@ -5561,19 +5561,19 @@
         <v>1048365</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>989118</v>
+        <v>986310</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1114903</v>
+        <v>1109008</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1510854181844992</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.142546954119912</v>
+        <v>0.1421422505780028</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.160674452504115</v>
+        <v>0.1598248832254253</v>
       </c>
     </row>
     <row r="36">
@@ -5837,19 +5837,19 @@
         <v>255591</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>222439</v>
+        <v>220850</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>287987</v>
+        <v>286557</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6318372375275352</v>
+        <v>0.6318372375275353</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.549882831523739</v>
+        <v>0.545954791478214</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7119220378411649</v>
+        <v>0.7083861512170155</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>140</v>
@@ -5858,19 +5858,19 @@
         <v>237318</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>210615</v>
+        <v>211549</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>263027</v>
+        <v>261132</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6546475379500025</v>
+        <v>0.6546475379500024</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5809878157693062</v>
+        <v>0.583563232500292</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7255677516780606</v>
+        <v>0.7203405995031193</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>253</v>
@@ -5879,19 +5879,19 @@
         <v>492910</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>452229</v>
+        <v>453372</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>532429</v>
+        <v>534916</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6426177459383613</v>
+        <v>0.6426177459383614</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5895812536953251</v>
+        <v>0.5910714703457178</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6941394481105649</v>
+        <v>0.6973830170595463</v>
       </c>
     </row>
     <row r="5">
@@ -5908,19 +5908,19 @@
         <v>29657</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16984</v>
+        <v>17863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48522</v>
+        <v>47345</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07331408319341606</v>
+        <v>0.07331408319341608</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04198652670354189</v>
+        <v>0.04415827852038447</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1199483867425022</v>
+        <v>0.1170396967162061</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -5929,19 +5929,19 @@
         <v>27115</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16889</v>
+        <v>16518</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42861</v>
+        <v>41879</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07479706356782716</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04658850116465577</v>
+        <v>0.04556524781132796</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1182327292857917</v>
+        <v>0.1155258215398237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -5950,19 +5950,19 @@
         <v>56772</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40948</v>
+        <v>40868</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79811</v>
+        <v>77323</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07401496315130045</v>
+        <v>0.07401496315130046</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0533849680089374</v>
+        <v>0.05328099843999001</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1040508460405851</v>
+        <v>0.1008075192416507</v>
       </c>
     </row>
     <row r="6">
@@ -5979,19 +5979,19 @@
         <v>69989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47046</v>
+        <v>47559</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>102154</v>
+        <v>100402</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1730175530263071</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1163006986600235</v>
+        <v>0.117568642957872</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2525311576945465</v>
+        <v>0.2481993786662103</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -6000,19 +6000,19 @@
         <v>62098</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>45373</v>
+        <v>42223</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>87062</v>
+        <v>84589</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1713000483752892</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1251639337400298</v>
+        <v>0.1164737399556035</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2401617915728392</v>
+        <v>0.2333408574110493</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -6021,19 +6021,19 @@
         <v>132088</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>100347</v>
+        <v>100839</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>167190</v>
+        <v>168737</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1722058331895225</v>
+        <v>0.1722058331895226</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1308248707065704</v>
+        <v>0.1314662216617253</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2179690017842487</v>
+        <v>0.2199867465595599</v>
       </c>
     </row>
     <row r="7">
@@ -6050,19 +6050,19 @@
         <v>49283</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30691</v>
+        <v>30278</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74459</v>
+        <v>73870</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1218311262527416</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07587044145095757</v>
+        <v>0.07484884181573592</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1840678606545908</v>
+        <v>0.1826103550432827</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -6071,19 +6071,19 @@
         <v>35981</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22278</v>
+        <v>21637</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56764</v>
+        <v>56638</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09925535010688114</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0614548652723765</v>
+        <v>0.05968565299264555</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1565862101809698</v>
+        <v>0.1562381372748788</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -6092,19 +6092,19 @@
         <v>85265</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58559</v>
+        <v>60942</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115515</v>
+        <v>120280</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1111614577208156</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07634507667150468</v>
+        <v>0.07945193243449214</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1505993657908348</v>
+        <v>0.156811743083752</v>
       </c>
     </row>
     <row r="8">
@@ -6125,19 +6125,19 @@
         <v>305926</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>279867</v>
+        <v>276651</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>334144</v>
+        <v>335898</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6415013333420526</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5868594111241334</v>
+        <v>0.5801140778074182</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7006738539959446</v>
+        <v>0.7043507678564337</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>296</v>
@@ -6146,19 +6146,19 @@
         <v>316352</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>293541</v>
+        <v>294619</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>337945</v>
+        <v>339151</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6328311103643497</v>
+        <v>0.6328311103643496</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5872002701990531</v>
+        <v>0.5893567007744306</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6760250092005973</v>
+        <v>0.6784372396678077</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>497</v>
@@ -6167,19 +6167,19 @@
         <v>622278</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>585083</v>
+        <v>584216</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>658181</v>
+        <v>659442</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6370641020375643</v>
+        <v>0.6370641020375641</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5989855091674179</v>
+        <v>0.5980981251850863</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6738201280973795</v>
+        <v>0.6751117584081766</v>
       </c>
     </row>
     <row r="9">
@@ -6196,19 +6196,19 @@
         <v>22290</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13398</v>
+        <v>12558</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36082</v>
+        <v>36409</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0467406214219377</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02809541448017308</v>
+        <v>0.0263331514408421</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07566096317711632</v>
+        <v>0.07634721690050728</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>34</v>
@@ -6217,19 +6217,19 @@
         <v>33330</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>23988</v>
+        <v>23228</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46114</v>
+        <v>45050</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.06667293843529797</v>
+        <v>0.06667293843529795</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04798465766820494</v>
+        <v>0.04646493653276453</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09224637838512534</v>
+        <v>0.09011874878989308</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>50</v>
@@ -6238,19 +6238,19 @@
         <v>55620</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40483</v>
+        <v>40593</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>72487</v>
+        <v>72710</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05694154719398772</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04144532750723362</v>
+        <v>0.0415576048639933</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0742096695256769</v>
+        <v>0.07443797040609383</v>
       </c>
     </row>
     <row r="10">
@@ -6267,19 +6267,19 @@
         <v>80322</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59847</v>
+        <v>57494</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103708</v>
+        <v>102472</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1684290650556886</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1254944915923246</v>
+        <v>0.1205606070535348</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2174672512333346</v>
+        <v>0.2148752164114915</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -6288,19 +6288,19 @@
         <v>84620</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66645</v>
+        <v>70549</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103194</v>
+        <v>104565</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1692748273272952</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1333162580986959</v>
+        <v>0.1411260604669663</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2064302493148509</v>
+        <v>0.2091713311500416</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -6309,19 +6309,19 @@
         <v>164943</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>139095</v>
+        <v>137460</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>197751</v>
+        <v>194062</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1688619077677364</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1424001667818122</v>
+        <v>0.1407264728152871</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2024494428032184</v>
+        <v>0.1986736229538051</v>
       </c>
     </row>
     <row r="11">
@@ -6338,19 +6338,19 @@
         <v>68352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50135</v>
+        <v>49748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>92792</v>
+        <v>90335</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.143328980180321</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1051283378898722</v>
+        <v>0.1043168924650523</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1945777140377464</v>
+        <v>0.189425093698905</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>59</v>
@@ -6359,19 +6359,19 @@
         <v>65597</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52052</v>
+        <v>50011</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>83575</v>
+        <v>82688</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1312211238730572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.10412488707267</v>
+        <v>0.1000410487093986</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1671829404263661</v>
+        <v>0.1654082891447565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -6380,19 +6380,19 @@
         <v>133950</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>110557</v>
+        <v>107258</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>163637</v>
+        <v>160069</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1371324430007117</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1131841259325558</v>
+        <v>0.1098063761133103</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1675255945551421</v>
+        <v>0.1638726927592359</v>
       </c>
     </row>
     <row r="12">
@@ -6413,19 +6413,19 @@
         <v>390215</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>363159</v>
+        <v>364788</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>413770</v>
+        <v>414010</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6332389995494934</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5893333114077596</v>
+        <v>0.5919762480847858</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6714643333980571</v>
+        <v>0.6718549242864101</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>534</v>
@@ -6434,19 +6434,19 @@
         <v>388301</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>369500</v>
+        <v>365857</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>409549</v>
+        <v>407952</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.624801693964013</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.594550023598246</v>
+        <v>0.5886883811137745</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6589920030050582</v>
+        <v>0.6564225248653707</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>880</v>
@@ -6455,19 +6455,19 @@
         <v>778515</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>747072</v>
+        <v>743918</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>813510</v>
+        <v>811779</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6290024258108886</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6035978600637302</v>
+        <v>0.6010493275983333</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6572767230603476</v>
+        <v>0.6558784836252034</v>
       </c>
     </row>
     <row r="13">
@@ -6484,19 +6484,19 @@
         <v>37363</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25575</v>
+        <v>25737</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50226</v>
+        <v>48696</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06063262607079511</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04150324748437578</v>
+        <v>0.041766041193213</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0815060333006177</v>
+        <v>0.07902416263950923</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -6505,19 +6505,19 @@
         <v>43094</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33841</v>
+        <v>33094</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54236</v>
+        <v>54722</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06934096968425263</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05445203334894255</v>
+        <v>0.05325080493520281</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08726989824882921</v>
+        <v>0.08805074071123789</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -6526,19 +6526,19 @@
         <v>80457</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65054</v>
+        <v>64975</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99332</v>
+        <v>99548</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0650052945116549</v>
+        <v>0.06500529451165492</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05256027444307949</v>
+        <v>0.05249665586248332</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08025541364236694</v>
+        <v>0.08043025487520924</v>
       </c>
     </row>
     <row r="14">
@@ -6555,19 +6555,19 @@
         <v>102589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82560</v>
+        <v>83562</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>124062</v>
+        <v>125046</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1664815103344385</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1339786345911351</v>
+        <v>0.1356044061563055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2013280121637776</v>
+        <v>0.2029240502490311</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>156</v>
@@ -6576,19 +6576,19 @@
         <v>118093</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>100937</v>
+        <v>100893</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>135602</v>
+        <v>134928</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1900200066551781</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1624149429853501</v>
+        <v>0.1623433674267334</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2181927807355274</v>
+        <v>0.2171076097325632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>241</v>
@@ -6597,19 +6597,19 @@
         <v>220682</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>194672</v>
+        <v>194844</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>246961</v>
+        <v>248326</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1783007545645278</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1572858988322109</v>
+        <v>0.1574245233730778</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1995322175777562</v>
+        <v>0.2006351541879034</v>
       </c>
     </row>
     <row r="15">
@@ -6626,19 +6626,19 @@
         <v>86053</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>68726</v>
+        <v>69207</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>105886</v>
+        <v>106269</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.139646864045273</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1115279378242415</v>
+        <v>0.1123092670876048</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1718308504505729</v>
+        <v>0.1724532231033015</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>96</v>
@@ -6647,19 +6647,19 @@
         <v>71990</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>58528</v>
+        <v>60138</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>86815</v>
+        <v>88260</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1158373296965562</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09417521956240767</v>
+        <v>0.09676539280081935</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.139691216674402</v>
+        <v>0.1420156844151276</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>171</v>
@@ -6668,19 +6668,19 @@
         <v>158044</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>136137</v>
+        <v>135853</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>178751</v>
+        <v>182395</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1276915251129287</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1099924198809622</v>
+        <v>0.1097627846085585</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1444219777572348</v>
+        <v>0.1473662925928665</v>
       </c>
     </row>
     <row r="16">
@@ -6701,19 +6701,19 @@
         <v>426157</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>396694</v>
+        <v>397778</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>451802</v>
+        <v>448976</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6082594853339041</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5662065396601994</v>
+        <v>0.5677542271994812</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6448626889653419</v>
+        <v>0.6408288213110974</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>689</v>
@@ -6722,19 +6722,19 @@
         <v>444581</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>423824</v>
+        <v>424808</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>464387</v>
+        <v>466450</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6050363354471295</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5767878507377627</v>
+        <v>0.5781266309448535</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6319900021540572</v>
+        <v>0.634797852169187</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1095</v>
@@ -6743,19 +6743,19 @@
         <v>870738</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>833408</v>
+        <v>837408</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>906930</v>
+        <v>904152</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6066095317184925</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5806030708127714</v>
+        <v>0.5833895412229184</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6318232281753221</v>
+        <v>0.6298875699259654</v>
       </c>
     </row>
     <row r="17">
@@ -6772,19 +6772,19 @@
         <v>42528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31804</v>
+        <v>30933</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55787</v>
+        <v>55781</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06070024441981409</v>
+        <v>0.06070024441981408</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04539376054110346</v>
+        <v>0.04415085403243616</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07962599679492419</v>
+        <v>0.07961694855640132</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -6793,19 +6793,19 @@
         <v>50145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39711</v>
+        <v>40285</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62065</v>
+        <v>61591</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.06824305102887676</v>
+        <v>0.06824305102887675</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05404278012725809</v>
+        <v>0.05482375966841355</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08446474200370034</v>
+        <v>0.08382030740814005</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>122</v>
@@ -6814,19 +6814,19 @@
         <v>92673</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>76376</v>
+        <v>77476</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>111209</v>
+        <v>111333</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06456146138835735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05320794051513624</v>
+        <v>0.05397428781927315</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07747477523575065</v>
+        <v>0.07756171974272945</v>
       </c>
     </row>
     <row r="18">
@@ -6843,19 +6843,19 @@
         <v>145659</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>124600</v>
+        <v>125292</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>169926</v>
+        <v>167689</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2079013970005278</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1778428426038164</v>
+        <v>0.1788314578547247</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2425371447058622</v>
+        <v>0.2393442491362668</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>215</v>
@@ -6864,19 +6864,19 @@
         <v>137976</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>122376</v>
+        <v>122998</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>154739</v>
+        <v>157876</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1877739420509668</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1665434867668086</v>
+        <v>0.1673896093884829</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.210586061589863</v>
+        <v>0.214855527950049</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>350</v>
@@ -6885,19 +6885,19 @@
         <v>283636</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>255321</v>
+        <v>257627</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>311455</v>
+        <v>313946</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1975980080084968</v>
+        <v>0.1975980080084967</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1778720444161587</v>
+        <v>0.1794787501258649</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2169787312187784</v>
+        <v>0.2187142268950823</v>
       </c>
     </row>
     <row r="19">
@@ -6914,19 +6914,19 @@
         <v>86273</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70399</v>
+        <v>69548</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>105286</v>
+        <v>105317</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1231388732457541</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1004810437775257</v>
+        <v>0.09926626533494565</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.150275565075632</v>
+        <v>0.1503197395176322</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>156</v>
@@ -6935,19 +6935,19 @@
         <v>102098</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>89461</v>
+        <v>88018</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118854</v>
+        <v>119004</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.138946671473027</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1217483704926766</v>
+        <v>0.1197850674902859</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1617493485141397</v>
+        <v>0.1619535852270719</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>236</v>
@@ -6956,19 +6956,19 @@
         <v>188371</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>167097</v>
+        <v>167458</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>215662</v>
+        <v>214025</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1312309988846533</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1164097663265511</v>
+        <v>0.1166615370100486</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1502436677752453</v>
+        <v>0.1491030764378128</v>
       </c>
     </row>
     <row r="20">
@@ -6989,19 +6989,19 @@
         <v>402108</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>379691</v>
+        <v>379574</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>425124</v>
+        <v>422381</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6621004156281745</v>
+        <v>0.6621004156281743</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6251894252494904</v>
+        <v>0.6249964153338332</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6999970005341589</v>
+        <v>0.6954816282286351</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>677</v>
@@ -7010,19 +7010,19 @@
         <v>406677</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>388357</v>
+        <v>388524</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>423849</v>
+        <v>424788</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6701644637322708</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6399746101581353</v>
+        <v>0.6402493371875643</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6984614799357439</v>
+        <v>0.7000097466881912</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1116</v>
@@ -7031,19 +7031,19 @@
         <v>808785</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>782487</v>
+        <v>782787</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>840342</v>
+        <v>836561</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6661308117152545</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6444708824423614</v>
+        <v>0.6447180961103367</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.692121394781951</v>
+        <v>0.6890074563664347</v>
       </c>
     </row>
     <row r="21">
@@ -7060,19 +7060,19 @@
         <v>29531</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20171</v>
+        <v>21518</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39098</v>
+        <v>41423</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04862510031008065</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03321271829752811</v>
+        <v>0.03543176659795191</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06437834373154247</v>
+        <v>0.06820558127740324</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>64</v>
@@ -7081,19 +7081,19 @@
         <v>37068</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28689</v>
+        <v>29149</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>46987</v>
+        <v>46680</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.06108497733466925</v>
+        <v>0.06108497733466926</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04727638534689071</v>
+        <v>0.04803549158058876</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07743065382447269</v>
+        <v>0.07692432091101163</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>100</v>
@@ -7102,19 +7102,19 @@
         <v>66599</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>54654</v>
+        <v>54882</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>81440</v>
+        <v>80358</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05485252343022438</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04501440664096805</v>
+        <v>0.0452014801718276</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06707564645242274</v>
+        <v>0.06618405738981274</v>
       </c>
     </row>
     <row r="22">
@@ -7131,19 +7131,19 @@
         <v>110550</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>92831</v>
+        <v>92639</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>130895</v>
+        <v>127817</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1820290385413821</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1528522768916287</v>
+        <v>0.1525376708877237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2155284743770433</v>
+        <v>0.2104598399053601</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>143</v>
@@ -7152,19 +7152,19 @@
         <v>88244</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>76204</v>
+        <v>75242</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102467</v>
+        <v>102114</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1454167654690997</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1255761622374478</v>
+        <v>0.1239921727155353</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1688562421514687</v>
+        <v>0.1682742927170188</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>262</v>
@@ -7173,19 +7173,19 @@
         <v>198794</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>175091</v>
+        <v>177369</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>222116</v>
+        <v>221976</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.163730293267941</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1442078234478956</v>
+        <v>0.1460842651970957</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1829390608089878</v>
+        <v>0.1828232005363101</v>
       </c>
     </row>
     <row r="23">
@@ -7202,19 +7202,19 @@
         <v>65133</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>51931</v>
+        <v>51400</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>81078</v>
+        <v>81468</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1072454455203629</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08550877968457855</v>
+        <v>0.0846346467328826</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1335006749174725</v>
+        <v>0.1341421963433397</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>115</v>
@@ -7223,19 +7223,19 @@
         <v>74843</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>61512</v>
+        <v>63010</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>87694</v>
+        <v>88167</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1233337934639602</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1013649692851088</v>
+        <v>0.1038335548160867</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1445108215927852</v>
+        <v>0.1452898809766776</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>182</v>
@@ -7244,19 +7244,19 @@
         <v>139975</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>119969</v>
+        <v>119871</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>159150</v>
+        <v>158955</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.11528637158658</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09880875229010724</v>
+        <v>0.09872805739102941</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1310790229838272</v>
+        <v>0.1309179643263032</v>
       </c>
     </row>
     <row r="24">
@@ -7277,19 +7277,19 @@
         <v>260548</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>242745</v>
+        <v>244791</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>276426</v>
+        <v>277540</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6414089229623923</v>
+        <v>0.6414089229623922</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5975824691872195</v>
+        <v>0.6026195662062047</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6804967724589391</v>
+        <v>0.6832403594022024</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>558</v>
@@ -7298,19 +7298,19 @@
         <v>294612</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>280399</v>
+        <v>279337</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>307719</v>
+        <v>308294</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.672715307267334</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6402619586463814</v>
+        <v>0.6378372836572217</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7026451443286255</v>
+        <v>0.7039585379206917</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>932</v>
@@ -7319,19 +7319,19 @@
         <v>555160</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>532092</v>
+        <v>532618</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>576461</v>
+        <v>576009</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6576505271149902</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6303242295972847</v>
+        <v>0.6309475181907436</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6828847489423592</v>
+        <v>0.6823492713503586</v>
       </c>
     </row>
     <row r="25">
@@ -7348,19 +7348,19 @@
         <v>28846</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21591</v>
+        <v>21479</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37907</v>
+        <v>38092</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07101137827617933</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05315125892856752</v>
+        <v>0.05287691171653205</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09331752826629391</v>
+        <v>0.09377365700321105</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>50</v>
@@ -7369,19 +7369,19 @@
         <v>24628</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18188</v>
+        <v>18980</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32536</v>
+        <v>32215</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05623437942269033</v>
+        <v>0.05623437942269034</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04152976497628931</v>
+        <v>0.04333831321846269</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07429308527948875</v>
+        <v>0.07355855154725016</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>96</v>
@@ -7390,19 +7390,19 @@
         <v>53473</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43830</v>
+        <v>43350</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65242</v>
+        <v>64791</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06334514114052016</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0519222033681237</v>
+        <v>0.05135331369925834</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07728722057474775</v>
+        <v>0.07675279458161056</v>
       </c>
     </row>
     <row r="26">
@@ -7419,19 +7419,19 @@
         <v>74741</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62349</v>
+        <v>62286</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>89684</v>
+        <v>88092</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1839957875387579</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1534899327858492</v>
+        <v>0.1533326854654415</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2207806774347799</v>
+        <v>0.2168626274536915</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>135</v>
@@ -7440,19 +7440,19 @@
         <v>69814</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58980</v>
+        <v>58767</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80645</v>
+        <v>80785</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1594138236277549</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.134673842728389</v>
+        <v>0.1341880489375388</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1841444820960575</v>
+        <v>0.184463869631463</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>236</v>
@@ -7461,19 +7461,19 @@
         <v>144556</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>128348</v>
+        <v>128391</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>163553</v>
+        <v>161990</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.17124278089171</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1520431049845986</v>
+        <v>0.1520935980222774</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1937476659191191</v>
+        <v>0.1918963309550623</v>
       </c>
     </row>
     <row r="27">
@@ -7490,19 +7490,19 @@
         <v>42077</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>32157</v>
+        <v>31776</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>53591</v>
+        <v>54173</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1035839112226705</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0791634064479607</v>
+        <v>0.07822487712463003</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1319293081481665</v>
+        <v>0.1333625279682779</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>82</v>
@@ -7511,19 +7511,19 @@
         <v>48891</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>39897</v>
+        <v>39691</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>59795</v>
+        <v>60250</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1116364896822206</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09109985398298005</v>
+        <v>0.09062932310980264</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1365365405435475</v>
+        <v>0.1375756858056787</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>130</v>
@@ -7532,19 +7532,19 @@
         <v>90968</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>75783</v>
+        <v>76021</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>106894</v>
+        <v>107984</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1077615508527796</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08977370183948263</v>
+        <v>0.0900553862983391</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1266281920714896</v>
+        <v>0.1279193935972815</v>
       </c>
     </row>
     <row r="28">
@@ -7565,19 +7565,19 @@
         <v>211888</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>197798</v>
+        <v>197519</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>225487</v>
+        <v>225510</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6830733864386366</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6376492554420166</v>
+        <v>0.636750739740472</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7269120787171308</v>
+        <v>0.7269859945240219</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>655</v>
@@ -7586,19 +7586,19 @@
         <v>335359</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>320496</v>
+        <v>321744</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>349785</v>
+        <v>350538</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7224817863968851</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6904614089413245</v>
+        <v>0.6931506639180699</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7535621428228144</v>
+        <v>0.7551834547894795</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>978</v>
@@ -7607,19 +7607,19 @@
         <v>547247</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>527209</v>
+        <v>527408</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>567373</v>
+        <v>566780</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7066955903237222</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6808196541469016</v>
+        <v>0.6810762669337704</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7326855718762857</v>
+        <v>0.731920497994502</v>
       </c>
     </row>
     <row r="29">
@@ -7636,19 +7636,19 @@
         <v>16865</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11309</v>
+        <v>11360</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23691</v>
+        <v>24119</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.05436791905575754</v>
+        <v>0.05436791905575755</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0364582121143005</v>
+        <v>0.03662296593395874</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07637369791854692</v>
+        <v>0.07775438062916608</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -7657,19 +7657,19 @@
         <v>12909</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8482</v>
+        <v>8451</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18563</v>
+        <v>18872</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02781153215727123</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01827340461896511</v>
+        <v>0.01820678315391972</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03999220097221753</v>
+        <v>0.04065688821533631</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>57</v>
@@ -7678,19 +7678,19 @@
         <v>29774</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>22130</v>
+        <v>23100</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>38556</v>
+        <v>38805</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0384494756164938</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02857841724502822</v>
+        <v>0.0298307927901302</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04979002367614947</v>
+        <v>0.05011114606623156</v>
       </c>
     </row>
     <row r="30">
@@ -7707,19 +7707,19 @@
         <v>44339</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>34082</v>
+        <v>34989</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>54475</v>
+        <v>55438</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1429388343870395</v>
+        <v>0.1429388343870396</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1098716484815284</v>
+        <v>0.1127964095118351</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1756141490148137</v>
+        <v>0.1787173141672164</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>110</v>
@@ -7728,19 +7728,19 @@
         <v>59179</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>49073</v>
+        <v>48918</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>70981</v>
+        <v>70502</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1274934266710887</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1057196264762263</v>
+        <v>0.1053871641019068</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1529186414545253</v>
+        <v>0.1518857990983029</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>173</v>
@@ -7749,19 +7749,19 @@
         <v>103519</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>89790</v>
+        <v>90882</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>119912</v>
+        <v>119863</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1336805399487722</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1159521890015748</v>
+        <v>0.1173620202224244</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1548499883744379</v>
+        <v>0.1547871274923852</v>
       </c>
     </row>
     <row r="31">
@@ -7778,19 +7778,19 @@
         <v>37106</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>27875</v>
+        <v>27158</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>48126</v>
+        <v>48670</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1196198601185662</v>
+        <v>0.1196198601185663</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0898620463020695</v>
+        <v>0.08755051929688254</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1551452916318808</v>
+        <v>0.1568995808543727</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>88</v>
@@ -7799,19 +7799,19 @@
         <v>56728</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>46367</v>
+        <v>46753</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>69081</v>
+        <v>69373</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1222132547747549</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09989201785421321</v>
+        <v>0.1007234541753535</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1488249435086794</v>
+        <v>0.1494544951283752</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>130</v>
@@ -7820,19 +7820,19 @@
         <v>93834</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>80312</v>
+        <v>79904</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>110631</v>
+        <v>112412</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1211743941110117</v>
+        <v>0.1211743941110116</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1037121697772535</v>
+        <v>0.1031848041410638</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1428648056071856</v>
+        <v>0.145165374412284</v>
       </c>
     </row>
     <row r="32">
@@ -7853,19 +7853,19 @@
         <v>2252433</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2184949</v>
+        <v>2188388</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2313506</v>
+        <v>2313496</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.639535895173044</v>
+        <v>0.6395358951730439</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6203749423489878</v>
+        <v>0.6213513957312661</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6568764456402475</v>
+        <v>0.6568735835222312</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3549</v>
@@ -7874,19 +7874,19 @@
         <v>2423199</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2372599</v>
+        <v>2370551</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2474171</v>
+        <v>2473728</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6500620497569312</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6364878406813426</v>
+        <v>0.6359383427220725</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6637361293629623</v>
+        <v>0.6636171567885694</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5751</v>
@@ -7895,19 +7895,19 @@
         <v>4675633</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4583776</v>
+        <v>4593037</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4764648</v>
+        <v>4764516</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6449482783181421</v>
+        <v>0.6449482783181419</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6322777692923882</v>
+        <v>0.6335552018935728</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6572268927118184</v>
+        <v>0.6572087143094787</v>
       </c>
     </row>
     <row r="33">
@@ -7924,19 +7924,19 @@
         <v>207080</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>181297</v>
+        <v>179492</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>242009</v>
+        <v>237743</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.05879632095483153</v>
+        <v>0.05879632095483152</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05147590474289751</v>
+        <v>0.05096337191556996</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06871395380824424</v>
+        <v>0.06750251720651521</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>332</v>
@@ -7945,19 +7945,19 @@
         <v>228289</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>204343</v>
+        <v>205398</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>255991</v>
+        <v>254862</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0612421484989019</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05481839067662377</v>
+        <v>0.05510120665137194</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0686737407626877</v>
+        <v>0.06837085943372589</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>556</v>
@@ -7966,19 +7966,19 @@
         <v>435368</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>395667</v>
+        <v>398860</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>476106</v>
+        <v>474772</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.06005392701313575</v>
+        <v>0.06005392701313574</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05457759291191023</v>
+        <v>0.05501806435664433</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.06567318986715388</v>
+        <v>0.06548915967923617</v>
       </c>
     </row>
     <row r="34">
@@ -7995,19 +7995,19 @@
         <v>628191</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>576266</v>
+        <v>577731</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>682656</v>
+        <v>685285</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1783629462472751</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1636197280196531</v>
+        <v>0.1640358007449525</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.193827420088655</v>
+        <v>0.1945736950907113</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>862</v>
@@ -8016,19 +8016,19 @@
         <v>620026</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>579523</v>
+        <v>579399</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>663790</v>
+        <v>661589</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1663318639334835</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1554664413896637</v>
+        <v>0.1554331194457271</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1780722872836013</v>
+        <v>0.1774817292735832</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1435</v>
@@ -8037,19 +8037,19 @@
         <v>1248217</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1185079</v>
+        <v>1181647</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1323363</v>
+        <v>1316753</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1721767529310444</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1634675967132323</v>
+        <v>0.1629943084006734</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1825422725923883</v>
+        <v>0.1816304926372919</v>
       </c>
     </row>
     <row r="35">
@@ -8066,19 +8066,19 @@
         <v>434277</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>392931</v>
+        <v>390380</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>484387</v>
+        <v>478987</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1233048376248494</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1115654676099222</v>
+        <v>0.1108409782948853</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1375324888667868</v>
+        <v>0.1359993340278883</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>612</v>
@@ -8087,19 +8087,19 @@
         <v>456129</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>421460</v>
+        <v>422043</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>492854</v>
+        <v>495510</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1223639378106835</v>
+        <v>0.1223639378106836</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1130635060993891</v>
+        <v>0.1132197684233264</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1322159657464407</v>
+        <v>0.1329285740516338</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>981</v>
@@ -8108,19 +8108,19 @@
         <v>890406</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>830412</v>
+        <v>842087</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>949941</v>
+        <v>954781</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1228210417376778</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1145455784889667</v>
+        <v>0.1161558971256658</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1310330881299298</v>
+        <v>0.1317008111128416</v>
       </c>
     </row>
     <row r="36">
